--- a/outputs/o__Campylobacterales.xlsx
+++ b/outputs/o__Campylobacterales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,36 +489,150 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>RUG537.fasta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01184220014565018</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9726617049748343</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.287103658967603e-09</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.66648898872315e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01532912625435121</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0001402954481733477</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9726617049748343</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>f__Campylobacteraceae</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>f__Campylobacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG653.fasta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7814227229340416</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.392887894333676e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.862020077623022e-10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0972046592122018</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.428726869890855e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1213483301986163</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7814227229340416</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>f__Arcobacteraceae</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>f__Arcobacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG666.fasta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2949487693776643</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.269395114523008e-13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007507927948079553</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1972515176040604</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07145584131105355</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4355930789114869</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4355930789114869</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>f__Sulfurovaceae</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>f__Sulfurovaceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>RUG791.fasta</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B5" t="n">
         <v>0.8717746812449849</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C5" t="n">
         <v>7.22072750025907e-14</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D5" t="n">
         <v>7.220727500259881e-14</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E5" t="n">
         <v>0.04443501188718216</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F5" t="n">
         <v>5.365775300922942e-06</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G5" t="n">
         <v>0.08378494109238759</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H5" t="n">
         <v>0.8717746812449849</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>f__Arcobacteraceae</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>f__Arcobacteraceae</t>
         </is>
